--- a/SWP/Data_Chocolate_allinterviews.xlsx
+++ b/SWP/Data_Chocolate_allinterviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A03CE29-7A28-A645-A679-D68400032300}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711D9533-091D-4C4A-B0BD-1F7FAC1CD28D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="Attribute Rating" sheetId="3" r:id="rId5"/>
     <sheet name="Social Demographic Questions" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AttributeRatingsStacked!$A$1:$O$501</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2809,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25455,6 +25458,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O501" xr:uid="{B0BCE218-9195-D34B-B138-4CE7B356E04C}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34474,8 +34478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:EA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:EA51"/>
+    <sheetView topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:EA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
